--- a/docs/shrcore/shr-core-Annotation-model.xlsx
+++ b/docs/shrcore/shr-core-Annotation-model.xlsx
@@ -150,7 +150,7 @@
     <t>A simple string.</t>
   </si>
   <si>
-    <t>shr-core-Annotation-model.humanAuthor[x]</t>
+    <t>shr-core-Annotation-model.personAuthor[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
@@ -316,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -325,7 +325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -355,7 +355,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
